--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J2">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N2">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O2">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P2">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q2">
-        <v>0.1572207347204444</v>
+        <v>0.002285716417666667</v>
       </c>
       <c r="R2">
-        <v>1.414986612484</v>
+        <v>0.020571447759</v>
       </c>
       <c r="S2">
-        <v>0.0029438838670779</v>
+        <v>4.715411540289852E-05</v>
       </c>
       <c r="T2">
-        <v>0.0029438838670779</v>
+        <v>4.715411540289851E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J3">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P3">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q3">
-        <v>1.303537117163778</v>
+        <v>0.06592665023322221</v>
       </c>
       <c r="R3">
-        <v>11.731834054474</v>
+        <v>0.593339852099</v>
       </c>
       <c r="S3">
-        <v>0.02440811573727285</v>
+        <v>0.001360060613467248</v>
       </c>
       <c r="T3">
-        <v>0.02440811573727285</v>
+        <v>0.001360060613467248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06762866666666666</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H4">
-        <v>0.202886</v>
+        <v>0.010261</v>
       </c>
       <c r="I4">
-        <v>0.06580093600101188</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="J4">
-        <v>0.06580093600101189</v>
+        <v>0.003549653112303053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P4">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q4">
-        <v>2.053399625272222</v>
+        <v>0.1038510964527778</v>
       </c>
       <c r="R4">
-        <v>18.48059662745</v>
+        <v>0.934659868075</v>
       </c>
       <c r="S4">
-        <v>0.03844893639666113</v>
+        <v>0.002142438383432907</v>
       </c>
       <c r="T4">
-        <v>0.03844893639666113</v>
+        <v>0.002142438383432907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.129417</v>
       </c>
       <c r="I5">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J5">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N5">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O5">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P5">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q5">
-        <v>0.875209578510889</v>
+        <v>0.2515862956136667</v>
       </c>
       <c r="R5">
-        <v>7.876886206598002</v>
+        <v>2.264276660523</v>
       </c>
       <c r="S5">
-        <v>0.01638788524345456</v>
+        <v>0.005190201691452631</v>
       </c>
       <c r="T5">
-        <v>0.01638788524345456</v>
+        <v>0.00519020169145263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.129417</v>
       </c>
       <c r="I6">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J6">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P6">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q6">
         <v>7.256473981722555</v>
@@ -818,10 +818,10 @@
         <v>65.30826583550301</v>
       </c>
       <c r="S6">
-        <v>0.135874041834545</v>
+        <v>0.149700377924212</v>
       </c>
       <c r="T6">
-        <v>0.135874041834545</v>
+        <v>0.149700377924212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.129417</v>
       </c>
       <c r="I7">
-        <v>0.3662978014030285</v>
+        <v>0.3907064193682856</v>
       </c>
       <c r="J7">
-        <v>0.3662978014030286</v>
+        <v>0.3907064193682855</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P7">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q7">
         <v>11.43077612341945</v>
@@ -880,10 +880,10 @@
         <v>102.876985110775</v>
       </c>
       <c r="S7">
-        <v>0.214035874325029</v>
+        <v>0.235815839752621</v>
       </c>
       <c r="T7">
-        <v>0.214035874325029</v>
+        <v>0.2358158397526209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.751027</v>
       </c>
       <c r="I8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J8">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N8">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O8">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P8">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q8">
-        <v>1.356908566659778</v>
+        <v>0.3900546887903333</v>
       </c>
       <c r="R8">
-        <v>12.212177099938</v>
+        <v>3.510492199113</v>
       </c>
       <c r="S8">
-        <v>0.02540747087585055</v>
+        <v>0.008046791660811931</v>
       </c>
       <c r="T8">
-        <v>0.02540747087585055</v>
+        <v>0.008046791660811927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.751027</v>
       </c>
       <c r="I9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J9">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P9">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q9">
         <v>11.25030158638811</v>
@@ -1004,10 +1004,10 @@
         <v>101.252714277493</v>
       </c>
       <c r="S9">
-        <v>0.2106565740124487</v>
+        <v>0.2320926669737565</v>
       </c>
       <c r="T9">
-        <v>0.2106565740124487</v>
+        <v>0.2320926669737564</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.751027</v>
       </c>
       <c r="I10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194114</v>
       </c>
       <c r="J10">
-        <v>0.5679012625959595</v>
+        <v>0.6057439275194113</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P10">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q10">
         <v>17.72206157961389</v>
@@ -1066,10 +1066,10 @@
         <v>159.498554216525</v>
       </c>
       <c r="S10">
-        <v>0.3318372177076603</v>
+        <v>0.365604468884843</v>
       </c>
       <c r="T10">
-        <v>0.3318372177076602</v>
+        <v>0.3656044688848429</v>
       </c>
     </row>
   </sheetData>
